--- a/biology/Botanique/Trebouxia/Trebouxia.xlsx
+++ b/biology/Botanique/Trebouxia/Trebouxia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trebouxia est un genre d'algues vertes unicellulaires. Elles sont rencontrées couramment dans les lichens.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (2 mai 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (2 mai 2013) :
 Trebouxia aggregata (Archibald) Gärtner
 Trebouxia angustilobata Beck
 Trebouxia anticipata Ahmadjian ex Archibald
@@ -538,7 +552,7 @@
 Trebouxia simplex Tschermak-Woess
 Trebouxia suecica Beck
 Trebouxia usneae (Hildreth &amp; Ahmadjian) Gärtner
-Selon World Register of Marine Species                               (2 mai 2013)[2] :
+Selon World Register of Marine Species                               (2 mai 2013) :
 Trebouxia aggregata (Archibald) Gärtner, 1985
 Trebouxia anticipata Ahmadjian ex Archibald, 1975
 Trebouxia arboricola Puymaly, 1924
@@ -589,7 +603,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Puymaly, 1924 : Recherches sur les algues vertes aériennes Delbrel, Bordeaux 274 pages.</t>
         </is>
